--- a/Datos/Anuario2024/120301_CaracteristicasPlayas.xlsx
+++ b/Datos/Anuario2024/120301_CaracteristicasPlayas.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="86" r:id="rId1"/>
+    <sheet name="1" sheetId="50" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="60" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -56,76 +62,258 @@
     <definedName name="_R6_5">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="59">
+  <si>
+    <t>Malva-rosa</t>
+  </si>
+  <si>
+    <t>Pinedo</t>
+  </si>
+  <si>
+    <t>Longitud (m)</t>
+  </si>
+  <si>
+    <t>Garrofera</t>
+  </si>
+  <si>
+    <t>el Cabanyal</t>
+  </si>
+  <si>
+    <t>el Saler</t>
+  </si>
+  <si>
+    <t>la Devesa</t>
+  </si>
+  <si>
+    <t>el Recatí</t>
+  </si>
+  <si>
+    <t>l'Arbre del Gos</t>
+  </si>
+  <si>
+    <t>Bandera azul</t>
+  </si>
+  <si>
+    <t>Acceso personas con discapacidad</t>
+  </si>
+  <si>
+    <t>CARACTERÍSTICAS DE LAS PLAYAS</t>
+  </si>
+  <si>
+    <t>Tipo de playa</t>
+  </si>
+  <si>
+    <t>Urbana</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Papeleras</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Fuente: Sistema de Información Nacional de Aguas de Baño (Náyade). Ministerio de Sanidad</t>
+  </si>
+  <si>
+    <t>Anchura (m)</t>
+  </si>
+  <si>
+    <t>Instalaciones</t>
+  </si>
+  <si>
+    <t>Duchas</t>
+  </si>
+  <si>
+    <t>Lavapiés</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Vestuarios</t>
+  </si>
+  <si>
+    <t>Atención sanitaria</t>
+  </si>
+  <si>
+    <t>Afluencia</t>
+  </si>
+  <si>
+    <t>Aparcamiento</t>
+  </si>
+  <si>
+    <t>Paseo marítimo</t>
+  </si>
+  <si>
+    <t>Contenedores</t>
+  </si>
+  <si>
+    <t>Megafonía</t>
+  </si>
+  <si>
+    <t>Alquiler toldos</t>
+  </si>
+  <si>
+    <t>Alquiler sombrillas</t>
+  </si>
+  <si>
+    <t>Alquiler tumbonas</t>
+  </si>
+  <si>
+    <t>Bares</t>
+  </si>
+  <si>
+    <t>Kioscos</t>
+  </si>
+  <si>
+    <t>Bancos / Mesas</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Médicos/as</t>
+  </si>
+  <si>
+    <t>Enfermeros/as</t>
+  </si>
+  <si>
+    <t>Socorristas</t>
+  </si>
+  <si>
+    <t>Local sanitario</t>
+  </si>
+  <si>
+    <t>Ambulancia</t>
+  </si>
+  <si>
+    <t>Torre de vigilancia</t>
+  </si>
+  <si>
+    <t>Chalecos salvavidas</t>
+  </si>
+  <si>
+    <t>Botiquín</t>
+  </si>
+  <si>
+    <t>Acceso peatonal</t>
+  </si>
+  <si>
+    <t>Acceso rodado</t>
+  </si>
+  <si>
+    <t>Embarcación rescate</t>
+  </si>
+  <si>
+    <t>Radio / teléfono / emisora</t>
+  </si>
+  <si>
+    <t>Semiurbana</t>
+  </si>
+  <si>
+    <t>Teléfono público</t>
+  </si>
+  <si>
+    <t>Fuente pública agua potable</t>
+  </si>
+  <si>
+    <t>1. Características generales de las playas de la ciudad de València. 2023</t>
+  </si>
+  <si>
+    <t>Media/Mitjana</t>
+  </si>
+  <si>
+    <t>Baja/Baixa</t>
+  </si>
+  <si>
+    <t>Recogida diaria basura</t>
+  </si>
+  <si>
+    <t>Limpieza diaria de la playa</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,72 +342,70 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -289,12 +475,80 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4893945</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="217170" y="306705"/>
+          <a:ext cx="5038725" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2138,1827 +2392,1256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="49.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>CARACTERÍSTICAS DE LAS PLAYAS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja16">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="29.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="9"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>1. Características generales de las playas de la ciudad de València. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-      <c r="C1" s="4" t="n"/>
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="4" t="n"/>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>Malva-rosa</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>el Cabanyal</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Pinedo</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>l'Arbre del Gos</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>el Saler</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t>Garrofera</t>
-        </is>
-      </c>
-      <c r="H3" s="8" t="inlineStr">
-        <is>
-          <t>la Devesa</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>el Recatí</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Longitud (m)</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="n">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
         <v>1000</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="10">
         <v>1200</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>1500</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="10">
         <v>2600</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="10">
         <v>2700</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="10">
         <v>1800</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="10">
         <v>5000</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="10">
         <v>3500</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>Anchura (m)</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="n">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11">
         <v>104</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="11">
         <v>197</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>32</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>32</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="11">
         <v>37</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>37</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="11">
         <v>25</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="11">
         <v>66</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Tipo de playa</t>
-        </is>
-      </c>
-      <c r="B6" s="21" t="inlineStr">
-        <is>
-          <t>Urbana</t>
-        </is>
-      </c>
-      <c r="C6" s="21" t="inlineStr">
-        <is>
-          <t>Urbana</t>
-        </is>
-      </c>
-      <c r="D6" s="21" t="inlineStr">
-        <is>
-          <t>Urbana</t>
-        </is>
-      </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>Semiurbana</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>Semiurbana</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>Semiurbana</t>
-        </is>
-      </c>
-      <c r="H6" s="10" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="I6" s="10" t="inlineStr">
-        <is>
-          <t>Urbana</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>Bandera azul</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="D7" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H7" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I7" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Afluencia</t>
-        </is>
-      </c>
-      <c r="B8" s="12" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
-      <c r="C8" s="12" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>Media/Mitjana</t>
-        </is>
-      </c>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>Media/Mitjana</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>Media/Mitjana</t>
-        </is>
-      </c>
-      <c r="G8" s="12" t="inlineStr">
-        <is>
-          <t>Media/Mitjana</t>
-        </is>
-      </c>
-      <c r="H8" s="12" t="inlineStr">
-        <is>
-          <t>Baja/Baixa</t>
-        </is>
-      </c>
-      <c r="I8" s="12" t="inlineStr">
-        <is>
-          <t>Media/Mitjana</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>Paseo marítimo</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C9" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D9" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G9" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H9" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I9" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>Acceso peatonal</t>
-        </is>
-      </c>
-      <c r="B10" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C10" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D10" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E10" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G10" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H10" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I10" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>Acceso personas con discapacidad</t>
-        </is>
-      </c>
-      <c r="B11" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C11" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E11" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F11" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G11" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H11" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I11" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>Acceso rodado</t>
-        </is>
-      </c>
-      <c r="B12" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C12" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D12" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F12" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G12" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H12" s="13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I12" s="13" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>Aparcamiento</t>
-        </is>
-      </c>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C13" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D13" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G13" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I13" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="20" t="inlineStr">
-        <is>
-          <t>Instalaciones</t>
-        </is>
-      </c>
-      <c r="B14" s="10" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="10" t="n"/>
-      <c r="G14" s="10" t="n"/>
-      <c r="H14" s="10" t="n"/>
-      <c r="I14" s="10" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="16" t="inlineStr">
-        <is>
-          <t>Fuente pública agua potable</t>
-        </is>
-      </c>
-      <c r="B15" s="11" t="n">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="11">
         <v>4</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>3</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="11">
         <v>4</v>
       </c>
-      <c r="G15" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H15" s="11" t="n">
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11">
         <v>4</v>
       </c>
-      <c r="I15" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>Duchas</t>
-        </is>
-      </c>
-      <c r="B16" s="10" t="n">
+      <c r="I15" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="B16" s="10">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10">
         <v>28</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="10">
         <v>11</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="10">
         <v>28</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="10">
         <v>16</v>
       </c>
-      <c r="G16" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="H16" s="10" t="n">
+      <c r="G16" s="10">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10">
         <v>2</v>
       </c>
-      <c r="I16" s="10" t="n">
+      <c r="I16" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="16" t="inlineStr">
-        <is>
-          <t>Lavapiés</t>
-        </is>
-      </c>
-      <c r="B17" s="11" t="n">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="11">
         <v>21</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="11">
         <v>28</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="11">
         <v>9</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="11">
         <v>26</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="11">
         <v>16</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="11">
         <v>2</v>
       </c>
-      <c r="H17" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I17" s="11" t="n">
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="17" t="inlineStr">
-        <is>
-          <t>Servicios</t>
-        </is>
-      </c>
-      <c r="B18" s="12" t="n">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="12">
         <v>8</v>
       </c>
-      <c r="C18" s="12" t="n">
-        <v>38</v>
-      </c>
-      <c r="D18" s="12" t="n">
+      <c r="C18" s="12">
+        <v>38</v>
+      </c>
+      <c r="D18" s="12">
         <v>4</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="12">
         <v>9</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="12">
         <v>21</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="12">
         <v>2</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="12">
         <v>5</v>
       </c>
-      <c r="I18" s="12" t="n">
+      <c r="I18" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="16" t="inlineStr">
-        <is>
-          <t>Vestuarios</t>
-        </is>
-      </c>
-      <c r="B19" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C19" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D19" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E19" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G19" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H19" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I19" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t>Papeleras</t>
-        </is>
-      </c>
-      <c r="B20" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C20" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="D20" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="F20" s="10" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G20" s="10" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I20" s="10" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="16" t="inlineStr">
-        <is>
-          <t>Contenedores</t>
-        </is>
-      </c>
-      <c r="B21" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C21" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="D21" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="E21" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H21" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I21" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>Teléfono público</t>
-        </is>
-      </c>
-      <c r="B22" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C22" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="D22" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="E22" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F22" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G22" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H22" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="16" t="inlineStr">
-        <is>
-          <t>Megafonía</t>
-        </is>
-      </c>
-      <c r="B23" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C23" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="D23" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="E23" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="F23" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G23" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H23" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I23" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>Alquiler toldos</t>
-        </is>
-      </c>
-      <c r="B24" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C24" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D24" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E24" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F24" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G24" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H24" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I24" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="16" t="inlineStr">
-        <is>
-          <t>Alquiler sombrillas</t>
-        </is>
-      </c>
-      <c r="B25" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C25" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="D25" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="E25" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G25" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H25" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I25" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>Alquiler tumbonas</t>
-        </is>
-      </c>
-      <c r="B26" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C26" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="D26" s="12" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="F26" s="10" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G26" s="10" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H26" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I26" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="16" t="inlineStr">
-        <is>
-          <t>Bares</t>
-        </is>
-      </c>
-      <c r="B27" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="C27" s="11" t="n">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="B21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="11">
+        <v>14</v>
+      </c>
+      <c r="C27" s="11">
+        <v>30</v>
+      </c>
+      <c r="D27" s="11">
         <v>6</v>
       </c>
-      <c r="E27" s="11" t="n">
+      <c r="E27" s="11">
         <v>1</v>
       </c>
-      <c r="F27" s="11" t="n">
+      <c r="F27" s="11">
         <v>4</v>
       </c>
-      <c r="G27" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H27" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I27" s="11" t="n">
+      <c r="G27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="17" t="inlineStr">
-        <is>
-          <t>Kioscos</t>
-        </is>
-      </c>
-      <c r="B28" s="12" t="n">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="12">
         <v>6</v>
       </c>
-      <c r="C28" s="12" t="n">
+      <c r="C28" s="12">
         <v>10</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="12">
         <v>2</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="12">
         <v>3</v>
       </c>
-      <c r="F28" s="12" t="n">
+      <c r="F28" s="12">
         <v>4</v>
       </c>
-      <c r="G28" s="12" t="n">
+      <c r="G28" s="12">
         <v>1</v>
       </c>
-      <c r="H28" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I28" s="12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="16" t="inlineStr">
-        <is>
-          <t>Bancos / Mesas</t>
-        </is>
-      </c>
-      <c r="B29" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C29" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D29" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="E29" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="F29" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G29" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H29" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I29" s="11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="20" t="inlineStr">
-        <is>
-          <t>Servicios</t>
-        </is>
-      </c>
-      <c r="B30" s="12" t="n"/>
-      <c r="C30" s="12" t="n"/>
-      <c r="D30" s="12" t="n"/>
-      <c r="E30" s="12" t="n"/>
-      <c r="F30" s="12" t="n"/>
-      <c r="G30" s="12" t="n"/>
-      <c r="H30" s="12" t="n"/>
-      <c r="I30" s="12" t="n"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="16" t="inlineStr">
-        <is>
-          <t>Atención sanitaria</t>
-        </is>
-      </c>
-      <c r="B31" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C31" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="D31" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="E31" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G31" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H31" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I31" s="11" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="18" t="inlineStr">
-        <is>
-          <t>Médicos/as</t>
-        </is>
-      </c>
-      <c r="B32" s="12" t="n">
+      <c r="H28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="12">
         <v>1</v>
       </c>
-      <c r="C32" s="12" t="n">
+      <c r="C32" s="12">
         <v>1</v>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="12">
         <v>1</v>
       </c>
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="12">
         <v>1</v>
       </c>
-      <c r="F32" s="12" t="n">
+      <c r="F32" s="12">
         <v>1</v>
       </c>
-      <c r="G32" s="12" t="n">
+      <c r="G32" s="12">
         <v>1</v>
       </c>
-      <c r="H32" s="12" t="n">
+      <c r="H32" s="12">
         <v>1</v>
       </c>
-      <c r="I32" s="12" t="n">
+      <c r="I32" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="19" t="inlineStr">
-        <is>
-          <t>Enfermeros/as</t>
-        </is>
-      </c>
-      <c r="B33" s="11" t="n">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="11">
         <v>1</v>
       </c>
-      <c r="C33" s="11" t="n">
+      <c r="C33" s="11">
         <v>1</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="11">
         <v>1</v>
       </c>
-      <c r="E33" s="11" t="n">
+      <c r="E33" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="11" t="n">
+      <c r="F33" s="11">
         <v>1</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="11">
         <v>1</v>
       </c>
-      <c r="H33" s="11" t="n">
+      <c r="H33" s="11">
         <v>1</v>
       </c>
-      <c r="I33" s="11" t="n">
+      <c r="I33" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="18" t="inlineStr">
-        <is>
-          <t>Socorristas</t>
-        </is>
-      </c>
-      <c r="B34" s="12" t="n">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="12">
         <v>10</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="12">
         <v>11</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="12">
         <v>8</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="12">
         <v>8</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="12">
         <v>9</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="12">
         <v>6</v>
       </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="12">
         <v>5</v>
       </c>
-      <c r="I34" s="12" t="n">
+      <c r="I34" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="16" t="inlineStr">
-        <is>
-          <t>Local sanitario</t>
-        </is>
-      </c>
-      <c r="B35" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C35" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D35" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E35" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G35" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H35" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I35" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="17" t="inlineStr">
-        <is>
-          <t>Ambulancia</t>
-        </is>
-      </c>
-      <c r="B36" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C36" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D36" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E36" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F36" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G36" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H36" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I36" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="16" t="inlineStr">
-        <is>
-          <t>Torre de vigilancia</t>
-        </is>
-      </c>
-      <c r="B37" s="14" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C37" s="14" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D37" s="14" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E37" s="14" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F37" s="14" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G37" s="14" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H37" s="14" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I37" s="14" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="17" t="inlineStr">
-        <is>
-          <t>Chalecos salvavidas</t>
-        </is>
-      </c>
-      <c r="B38" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C38" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D38" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E38" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F38" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G38" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H38" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I38" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="16" t="inlineStr">
-        <is>
-          <t>Radio / teléfono / emisora</t>
-        </is>
-      </c>
-      <c r="B39" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C39" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D39" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E39" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G39" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H39" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I39" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="17" t="inlineStr">
-        <is>
-          <t>Embarcación rescate</t>
-        </is>
-      </c>
-      <c r="B40" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C40" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D40" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E40" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F40" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G40" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H40" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I40" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="16" t="inlineStr">
-        <is>
-          <t>Botiquín</t>
-        </is>
-      </c>
-      <c r="B41" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C41" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D41" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E41" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F41" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G41" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H41" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I41" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="17" t="inlineStr">
-        <is>
-          <t>Recogida diaria basura</t>
-        </is>
-      </c>
-      <c r="B42" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C42" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D42" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E42" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F42" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G42" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H42" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I42" s="12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="16" t="inlineStr">
-        <is>
-          <t>Limpieza diaria de la playa</t>
-        </is>
-      </c>
-      <c r="B43" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="C43" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="D43" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="E43" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="F43" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G43" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H43" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I43" s="11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>Fuente: Sistema de Información Nacional de Aguas de Baño (Náyade). Ministerio de Sanidad</t>
-        </is>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="65" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja28">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.42578125" customWidth="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>